--- a/data/aip/PublishProfiles.xlsx
+++ b/data/aip/PublishProfiles.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{7E6B5C6F-2418-4D72-885A-0A459EF83910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45847311-A3CC-465E-8996-9132F9225B48}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{7E6B5C6F-2418-4D72-885A-0A459EF83910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A40AAA26-47B4-40C2-8B02-CECA77882F7F}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="1212" windowWidth="13500" windowHeight="8382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="642" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publish" sheetId="2" r:id="rId1"/>
@@ -40,12 +40,6 @@
     <t>Labels für externe Mitarbeiter</t>
   </si>
   <si>
-    <t>Intern.Oeffentlich</t>
-  </si>
-  <si>
-    <t>Extern.Oeffentlich</t>
-  </si>
-  <si>
     <t>InterneLabels</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Internal.Public</t>
+  </si>
+  <si>
+    <t>External.Public</t>
   </si>
 </sst>
 </file>
@@ -418,50 +418,50 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/aip/PublishProfiles.xlsx
+++ b/data/aip/PublishProfiles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{7E6B5C6F-2418-4D72-885A-0A459EF83910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A40AAA26-47B4-40C2-8B02-CECA77882F7F}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{7E6B5C6F-2418-4D72-885A-0A459EF83910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4DD9DDC-9B9A-4923-82FF-E367DD083A2B}"/>
   <bookViews>
     <workbookView xWindow="2196" yWindow="642" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/aip/PublishProfiles.xlsx
+++ b/data/aip/PublishProfiles.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{7E6B5C6F-2418-4D72-885A-0A459EF83910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4DD9DDC-9B9A-4923-82FF-E367DD083A2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1994573-B293-483C-B965-6DA1E48DE710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="642" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publish" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ProfileName</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>External.Public</t>
+  </si>
+  <si>
+    <t>ModernGrpLoc</t>
+  </si>
+  <si>
+    <t>ALYAMG-ADM-AlleInternen@alyaconsulting031.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>ALYAMG-ADM-AlleExternen@alyaconsulting031.onmicrosoft.com</t>
   </si>
 </sst>
 </file>
@@ -391,20 +400,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BA2751-EBEE-42C8-BDEB-0A9820EE79C9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.9453125" customWidth="1"/>
-    <col min="3" max="3" width="34.578125" customWidth="1"/>
-    <col min="4" max="4" width="14.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1015625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +434,11 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -443,8 +457,11 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -463,9 +480,15 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="ALYAOG-ADM-AlleExternen@alyaconsulting031.onmicrosoft.com" xr:uid="{32DC8FF9-ADC1-43A6-A39A-0BD73B51ACAD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/aip/PublishProfiles.xlsx
+++ b/data/aip/PublishProfiles.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1994573-B293-483C-B965-6DA1E48DE710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF4456-2BE4-456C-883C-6B59F4C435A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15708" yWindow="2496" windowWidth="21852" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publish" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>ProfileName</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>ALYAMG-ADM-AlleExternen@alyaconsulting031.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>OneDriveLoc</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BA2751-EBEE-42C8-BDEB-0A9820EE79C9}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,10 +415,11 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +439,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -458,10 +465,13 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -481,12 +491,15 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="ALYAOG-ADM-AlleExternen@alyaconsulting031.onmicrosoft.com" xr:uid="{32DC8FF9-ADC1-43A6-A39A-0BD73B51ACAD}"/>
+    <hyperlink ref="H3" r:id="rId1" display="ALYAOG-ADM-AlleExternen@alyaconsulting031.onmicrosoft.com" xr:uid="{32DC8FF9-ADC1-43A6-A39A-0BD73B51ACAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data/aip/PublishProfiles.xlsx
+++ b/data/aip/PublishProfiles.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF4456-2BE4-456C-883C-6B59F4C435A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0A3D9-E787-4420-8771-36EBD1244569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15708" yWindow="2496" windowWidth="21852" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3324" yWindow="4392" windowWidth="29148" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publish" sheetId="2" r:id="rId1"/>
@@ -46,12 +46,6 @@
     <t>ExterneLabels</t>
   </si>
   <si>
-    <t>Internal.Internal,Internal.External,External.Internal,External.External,Internal.Public,External.Public,Public,Internal.Specified,External.Specified</t>
-  </si>
-  <si>
-    <t>External.External,External.Public,Public</t>
-  </si>
-  <si>
     <t>ExchangeLoc</t>
   </si>
   <si>
@@ -61,22 +55,28 @@
     <t>All</t>
   </si>
   <si>
-    <t>Internal.Public</t>
-  </si>
-  <si>
-    <t>External.Public</t>
-  </si>
-  <si>
     <t>ModernGrpLoc</t>
   </si>
   <si>
-    <t>ALYAMG-ADM-AlleInternen@alyaconsulting031.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>ALYAMG-ADM-AlleExternen@alyaconsulting031.onmicrosoft.com</t>
+    <t>ALYAOG-ADM-AlleExternen@alyaconsulting031.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>ALYAOG-ADM-AlleInternen@alyaconsulting031.onmicrosoft.com</t>
   </si>
   <si>
     <t>OneDriveLoc</t>
+  </si>
+  <si>
+    <t>Int.Int,Int.Ext,Ext.Int,Ext.Ext,Int.Pub,Ext.Pub,Pub,Int.Spec,Ext.Spec</t>
+  </si>
+  <si>
+    <t>Ext.Ext,Ext.Pub,Pub</t>
+  </si>
+  <si>
+    <t>Int.Pub</t>
+  </si>
+  <si>
+    <t>Ext.Pub</t>
   </si>
 </sst>
 </file>
@@ -405,18 +405,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BA2751-EBEE-42C8-BDEB-0A9820EE79C9}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -433,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -453,22 +452,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -479,29 +478,26 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="ALYAOG-ADM-AlleExternen@alyaconsulting031.onmicrosoft.com" xr:uid="{32DC8FF9-ADC1-43A6-A39A-0BD73B51ACAD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>